--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4969512195121951</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1037584236966456</v>
+        <v>0.08492914592906468</v>
       </c>
       <c r="J2" t="n">
-        <v>1322.701422454888</v>
+        <v>1136.46982263638</v>
       </c>
       <c r="K2" t="n">
-        <v>2093094.453686452</v>
+        <v>1817667.844339822</v>
       </c>
       <c r="L2" t="n">
-        <v>1446.753072810441</v>
+        <v>1348.209124854087</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6051568788588633</v>
+        <v>0.6571135891201743</v>
       </c>
     </row>
   </sheetData>
